--- a/MS Sev A Tickets.xlsx
+++ b/MS Sev A Tickets.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajesh.gopu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A63F648-906C-42F5-9E94-2EA42D8B3D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B62B1C9-1631-435B-B2DB-1E13207E1B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6C32CC72-77C5-4C06-8B7E-F52E2D3D218C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{6C32CC72-77C5-4C06-8B7E-F52E2D3D218C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="118">
   <si>
     <t>2507210050000561</t>
   </si>
@@ -388,6 +389,9 @@
   </si>
   <si>
     <t>TLS 1.2 Az resoureces upgrade- storage accounts and Vms</t>
+  </si>
+  <si>
+    <t>For GIT</t>
   </si>
 </sst>
 </file>
@@ -836,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4CE58B-ACEF-4E00-8CDA-6C01D958CC75}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
@@ -1578,4 +1582,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C4A788-07F9-4C13-AF5E-6AE2EB7DCF2B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>